--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N2">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q2">
-        <v>882.544168188904</v>
+        <v>1011.569835851496</v>
       </c>
       <c r="R2">
-        <v>882.544168188904</v>
+        <v>9104.128522663459</v>
       </c>
       <c r="S2">
-        <v>0.04008370786185</v>
+        <v>0.03987917071740717</v>
       </c>
       <c r="T2">
-        <v>0.04008370786185</v>
+        <v>0.03987917071740718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N3">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q3">
-        <v>3484.190104950011</v>
+        <v>3648.041985438877</v>
       </c>
       <c r="R3">
-        <v>3484.190104950011</v>
+        <v>32832.37786894989</v>
       </c>
       <c r="S3">
-        <v>0.1582461970017476</v>
+        <v>0.1438169506103614</v>
       </c>
       <c r="T3">
-        <v>0.1582461970017476</v>
+        <v>0.1438169506103615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N4">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q4">
-        <v>1375.257795277852</v>
+        <v>1545.434827956262</v>
       </c>
       <c r="R4">
-        <v>1375.257795277852</v>
+        <v>13908.91345160636</v>
       </c>
       <c r="S4">
-        <v>0.06246195225987833</v>
+        <v>0.06092575831387513</v>
       </c>
       <c r="T4">
-        <v>0.06246195225987833</v>
+        <v>0.06092575831387515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N5">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O5">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P5">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q5">
-        <v>448.3537008161317</v>
+        <v>494.7149993063421</v>
       </c>
       <c r="R5">
-        <v>448.3537008161317</v>
+        <v>4452.434993757079</v>
       </c>
       <c r="S5">
-        <v>0.02036348934147212</v>
+        <v>0.019503175376115</v>
       </c>
       <c r="T5">
-        <v>0.02036348934147212</v>
+        <v>0.01950317537611501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N6">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q6">
-        <v>339.7782596429233</v>
+        <v>378.8350185949913</v>
       </c>
       <c r="R6">
-        <v>339.7782596429233</v>
+        <v>3409.515167354921</v>
       </c>
       <c r="S6">
-        <v>0.01543217097596815</v>
+        <v>0.01493483281612963</v>
       </c>
       <c r="T6">
-        <v>0.01543217097596815</v>
+        <v>0.01493483281612963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N7">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q7">
-        <v>1341.408274845245</v>
+        <v>1366.199351155754</v>
       </c>
       <c r="R7">
-        <v>1341.408274845245</v>
+        <v>12295.79416040178</v>
       </c>
       <c r="S7">
-        <v>0.06092456258898092</v>
+        <v>0.05385974870720604</v>
       </c>
       <c r="T7">
-        <v>0.06092456258898092</v>
+        <v>0.05385974870720604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N8">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q8">
-        <v>529.472310942576</v>
+        <v>578.7685743845246</v>
       </c>
       <c r="R8">
-        <v>529.472310942576</v>
+        <v>5208.917169460721</v>
       </c>
       <c r="S8">
-        <v>0.02404776349756367</v>
+        <v>0.02281682387684327</v>
       </c>
       <c r="T8">
-        <v>0.02404776349756367</v>
+        <v>0.02281682387684328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N9">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O9">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P9">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q9">
-        <v>172.6155422684311</v>
+        <v>185.2718016286845</v>
       </c>
       <c r="R9">
-        <v>172.6155422684311</v>
+        <v>1667.44621465816</v>
       </c>
       <c r="S9">
-        <v>0.007839914667275467</v>
+        <v>0.007303979957105579</v>
       </c>
       <c r="T9">
-        <v>0.007839914667275467</v>
+        <v>0.007303979957105581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N10">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q10">
-        <v>1727.774197505143</v>
+        <v>2203.317007910934</v>
       </c>
       <c r="R10">
-        <v>1727.774197505143</v>
+        <v>19829.85307119841</v>
       </c>
       <c r="S10">
-        <v>0.07847266876870315</v>
+        <v>0.08686148201432355</v>
       </c>
       <c r="T10">
-        <v>0.07847266876870315</v>
+        <v>0.08686148201432356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N11">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q11">
-        <v>6821.067975429462</v>
+        <v>7945.860648686486</v>
       </c>
       <c r="R11">
-        <v>6821.067975429462</v>
+        <v>71512.74583817838</v>
       </c>
       <c r="S11">
-        <v>0.3098017140536047</v>
+        <v>0.3132500812847637</v>
       </c>
       <c r="T11">
-        <v>0.3098017140536047</v>
+        <v>0.3132500812847638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N12">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q12">
-        <v>2692.369423815947</v>
+        <v>3366.137186354207</v>
       </c>
       <c r="R12">
-        <v>2692.369423815947</v>
+        <v>30295.23467718786</v>
       </c>
       <c r="S12">
-        <v>0.1222830010444487</v>
+        <v>0.1327034029240657</v>
       </c>
       <c r="T12">
-        <v>0.1222830010444487</v>
+        <v>0.1327034029240658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N13">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O13">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P13">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q13">
-        <v>877.7509200652747</v>
+        <v>1077.546930927199</v>
       </c>
       <c r="R13">
-        <v>877.7509200652747</v>
+        <v>9697.922378344791</v>
       </c>
       <c r="S13">
-        <v>0.03986600639780748</v>
+        <v>0.04248018919849683</v>
       </c>
       <c r="T13">
-        <v>0.03986600639780748</v>
+        <v>0.04248018919849685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N14">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O14">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P14">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q14">
-        <v>188.8946095280285</v>
+        <v>236.1678684122767</v>
       </c>
       <c r="R14">
-        <v>188.8946095280285</v>
+        <v>2125.510815710491</v>
       </c>
       <c r="S14">
-        <v>0.008579283188214397</v>
+        <v>0.00931045826851047</v>
       </c>
       <c r="T14">
-        <v>0.008579283188214397</v>
+        <v>0.009310458268510473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N15">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O15">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P15">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q15">
-        <v>745.7357411885141</v>
+        <v>851.6963130423651</v>
       </c>
       <c r="R15">
-        <v>745.7357411885141</v>
+        <v>7665.266817381285</v>
       </c>
       <c r="S15">
-        <v>0.03387009361047909</v>
+        <v>0.03357646843889184</v>
       </c>
       <c r="T15">
-        <v>0.03387009361047909</v>
+        <v>0.03357646843889184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N16">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O16">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P16">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q16">
-        <v>294.352162308757</v>
+        <v>360.8075647899267</v>
       </c>
       <c r="R16">
-        <v>294.352162308757</v>
+        <v>3247.26808310934</v>
       </c>
       <c r="S16">
-        <v>0.01336899217939494</v>
+        <v>0.01422413555884419</v>
       </c>
       <c r="T16">
-        <v>0.01336899217939494</v>
+        <v>0.01422413555884419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N17">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O17">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P17">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q17">
-        <v>95.96301272933222</v>
+        <v>115.4994768694467</v>
       </c>
       <c r="R17">
-        <v>95.96301272933222</v>
+        <v>1039.49529182502</v>
       </c>
       <c r="S17">
-        <v>0.004358482562611202</v>
+        <v>0.004553341937060365</v>
       </c>
       <c r="T17">
-        <v>0.004358482562611202</v>
+        <v>0.004553341937060367</v>
       </c>
     </row>
   </sheetData>
